--- a/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C2D12-98D1-4BDB-9FCD-7FA68C149066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,6 +61,9 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>کنسانتره سرب سولفوره</t>
   </si>
   <si>
@@ -76,9 +80,6 @@
   </si>
   <si>
     <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -632,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -732,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -744,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -753,48 +788,48 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>478</v>
-      </c>
-      <c r="F11" s="11">
         <v>409</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>95</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="13">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I12" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -803,8 +838,8 @@
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -816,9 +851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
@@ -827,68 +862,68 @@
       <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="13">
-        <v>1719</v>
+        <v>188</v>
       </c>
       <c r="H14" s="13">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I14" s="13">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>15980</v>
-      </c>
-      <c r="F15" s="11">
         <v>3748</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="11">
-        <v>9149</v>
+        <v>7143</v>
       </c>
       <c r="H15" s="11">
-        <v>7143</v>
+        <v>9578</v>
       </c>
       <c r="I15" s="11">
-        <v>9578</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>16553</v>
+        <v>4157</v>
       </c>
       <c r="F16" s="15">
-        <v>4157</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>11089</v>
+        <v>7331</v>
       </c>
       <c r="H16" s="15">
-        <v>7331</v>
+        <v>9818</v>
       </c>
       <c r="I16" s="15">
-        <v>9818</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -898,7 +933,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
@@ -906,69 +941,69 @@
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="11">
         <v>401</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="11">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="H18" s="11">
-        <v>246</v>
+        <v>775</v>
       </c>
       <c r="I18" s="11">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>184</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="13">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I19" s="13">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="F20" s="17">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>5665</v>
+        <v>246</v>
       </c>
       <c r="H20" s="17">
-        <v>246</v>
+        <v>5075</v>
       </c>
       <c r="I20" s="17">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
@@ -980,7 +1015,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
@@ -989,44 +1024,44 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>34628</v>
-      </c>
-      <c r="F22" s="11">
         <v>12495</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G22" s="11">
-        <v>13056</v>
+        <v>20026</v>
       </c>
       <c r="H22" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="I22" s="11">
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>34628</v>
+        <v>12495</v>
       </c>
       <c r="F23" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>13056</v>
+        <v>20026</v>
       </c>
       <c r="H23" s="15">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="I23" s="15">
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
@@ -1035,32 +1070,32 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15">
-        <v>0</v>
+      <c r="E25" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -1072,29 +1107,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>51365</v>
+        <v>17053</v>
       </c>
       <c r="F26" s="17">
-        <v>17053</v>
+        <v>0</v>
       </c>
       <c r="G26" s="17">
-        <v>29810</v>
+        <v>27603</v>
       </c>
       <c r="H26" s="17">
-        <v>27603</v>
+        <v>25896</v>
       </c>
       <c r="I26" s="17">
-        <v>25896</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12933</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1104,7 +1139,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1114,7 +1149,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1124,7 +1159,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1156,7 +1191,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1203,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1177,48 +1212,48 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>308221</v>
-      </c>
-      <c r="F33" s="11">
         <v>280230</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="11">
-        <v>87810</v>
+        <v>0</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>66370</v>
-      </c>
-      <c r="F34" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G34" s="13">
-        <v>74291</v>
+        <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="I34" s="13">
-        <v>23381</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>30</v>
@@ -1227,8 +1262,8 @@
       <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
@@ -1240,9 +1275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>30</v>
@@ -1251,66 +1286,66 @@
       <c r="E36" s="13">
         <v>0</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
+      <c r="F36" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G36" s="13">
-        <v>607822</v>
+        <v>54111</v>
       </c>
       <c r="H36" s="13">
-        <v>54111</v>
+        <v>38584</v>
       </c>
       <c r="I36" s="13">
-        <v>38584</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1546418</v>
-      </c>
-      <c r="F37" s="11">
         <v>330488</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="11">
-        <v>1222312</v>
+        <v>867015</v>
       </c>
       <c r="H37" s="11">
-        <v>867015</v>
+        <v>995279</v>
       </c>
       <c r="I37" s="11">
-        <v>995279</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>277323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>1921009</v>
+        <v>610718</v>
       </c>
       <c r="F38" s="15">
-        <v>610718</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
-        <v>1992235</v>
+        <v>921126</v>
       </c>
       <c r="H38" s="15">
-        <v>921126</v>
+        <v>1057244</v>
       </c>
       <c r="I38" s="15">
-        <v>1057244</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>306437</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1357,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1330,69 +1365,69 @@
         <v>30</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="E40" s="11">
         <v>300977</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="11">
-        <v>172699</v>
+        <v>214709</v>
       </c>
       <c r="H40" s="11">
-        <v>214709</v>
+        <v>654438</v>
       </c>
       <c r="I40" s="11">
-        <v>654438</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13672</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>20634</v>
-      </c>
-      <c r="F41" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G41" s="13">
-        <v>461636</v>
+        <v>0</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="I41" s="13">
-        <v>857115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758162</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>20634</v>
+        <v>300977</v>
       </c>
       <c r="F42" s="17">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="G42" s="17">
-        <v>634335</v>
+        <v>214709</v>
       </c>
       <c r="H42" s="17">
-        <v>214709</v>
+        <v>1511553</v>
       </c>
       <c r="I42" s="17">
-        <v>1511553</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>771834</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1439,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -1413,44 +1448,44 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>222580</v>
-      </c>
-      <c r="F44" s="11">
         <v>137445</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G44" s="11">
-        <v>143609</v>
+        <v>280369</v>
       </c>
       <c r="H44" s="11">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="I44" s="11">
-        <v>154042</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76992</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="F45" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="G45" s="15">
-        <v>143609</v>
+        <v>280369</v>
       </c>
       <c r="H45" s="15">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="I45" s="15">
-        <v>154042</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76992</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
@@ -1459,22 +1494,22 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
@@ -1482,11 +1517,11 @@
         <v>30</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15">
-        <v>0</v>
+      <c r="E47" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1498,29 +1533,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>2164223</v>
+        <v>1049140</v>
       </c>
       <c r="F48" s="17">
-        <v>1049140</v>
+        <v>0</v>
       </c>
       <c r="G48" s="17">
-        <v>2770179</v>
+        <v>1416204</v>
       </c>
       <c r="H48" s="17">
-        <v>1416204</v>
+        <v>2722839</v>
       </c>
       <c r="I48" s="17">
-        <v>2722839</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1155263</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1530,7 +1565,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1540,7 +1575,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1550,7 +1585,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -1572,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1582,7 +1617,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1594,7 +1629,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1603,118 +1638,118 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>644813808</v>
+        <v>685158924</v>
       </c>
       <c r="F55" s="11">
-        <v>685158924</v>
-      </c>
-      <c r="G55" s="11">
         <v>878100000</v>
       </c>
+      <c r="G55" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1292500000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13">
-        <v>698631579</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="E56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="13">
         <v>613975207</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>19</v>
+      <c r="G56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="13">
+        <v>334014286</v>
       </c>
       <c r="I56" s="13">
-        <v>334014286</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>351076923</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="F58" s="13">
+        <v>353590460</v>
       </c>
       <c r="G58" s="13">
-        <v>353590460</v>
+        <v>287824468</v>
       </c>
       <c r="H58" s="13">
-        <v>287824468</v>
+        <v>226964706</v>
       </c>
       <c r="I58" s="13">
-        <v>226964706</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227647059</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>96772090</v>
+        <v>88177161</v>
       </c>
       <c r="F59" s="11">
-        <v>88177161</v>
+        <v>133600612</v>
       </c>
       <c r="G59" s="11">
-        <v>133600612</v>
+        <v>121379672</v>
       </c>
       <c r="H59" s="11">
-        <v>121379672</v>
+        <v>103913030</v>
       </c>
       <c r="I59" s="11">
-        <v>103913030</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90955395</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1761,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1734,47 +1769,47 @@
         <v>35</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>19</v>
+      <c r="E61" s="11">
+        <v>750566085</v>
       </c>
       <c r="F61" s="11">
-        <v>750566085</v>
+        <v>885635897</v>
       </c>
       <c r="G61" s="11">
-        <v>885635897</v>
+        <v>872800813</v>
       </c>
       <c r="H61" s="11">
-        <v>872800813</v>
+        <v>844436129</v>
       </c>
       <c r="I61" s="11">
-        <v>844436129</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>854500000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13">
-        <v>112141304</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="E62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="13">
         <v>84394150</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>19</v>
+      <c r="G62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="13">
+        <v>199329070</v>
       </c>
       <c r="I62" s="13">
-        <v>199329070</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175419250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1821,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>22</v>
       </c>
@@ -1795,22 +1830,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1820,7 +1855,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1830,7 +1865,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1840,7 +1875,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1862,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1872,7 +1907,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1919,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1893,48 +1928,48 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-302478</v>
+        <v>-211609</v>
       </c>
       <c r="F71" s="11">
-        <v>-211609</v>
+        <v>-52510</v>
       </c>
       <c r="G71" s="11">
-        <v>-52510</v>
+        <v>0</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-18489</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>-45767</v>
+        <v>-12127</v>
       </c>
       <c r="F72" s="13">
-        <v>-12127</v>
+        <v>-31474</v>
       </c>
       <c r="G72" s="13">
-        <v>-31474</v>
+        <v>0</v>
       </c>
       <c r="H72" s="13">
-        <v>0</v>
+        <v>-23143</v>
       </c>
       <c r="I72" s="13">
-        <v>-23143</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4320</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>30</v>
@@ -1956,77 +1991,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="F74" s="13">
-        <v>-17032</v>
+        <v>-379413</v>
       </c>
       <c r="G74" s="13">
-        <v>-379413</v>
+        <v>-33268</v>
       </c>
       <c r="H74" s="13">
-        <v>-33268</v>
+        <v>-38387</v>
       </c>
       <c r="I74" s="13">
-        <v>-38387</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>-1025388</v>
+        <v>-213078</v>
       </c>
       <c r="F75" s="11">
-        <v>-213078</v>
+        <v>-1113947</v>
       </c>
       <c r="G75" s="11">
-        <v>-1113947</v>
+        <v>-771504</v>
       </c>
       <c r="H75" s="11">
-        <v>-771504</v>
+        <v>-622484</v>
       </c>
       <c r="I75" s="11">
-        <v>-622484</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-148201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>-1353688</v>
+        <v>-453846</v>
       </c>
       <c r="F76" s="15">
-        <v>-453846</v>
+        <v>-1577344</v>
       </c>
       <c r="G76" s="15">
-        <v>-1577344</v>
+        <v>-804772</v>
       </c>
       <c r="H76" s="15">
-        <v>-804772</v>
+        <v>-684014</v>
       </c>
       <c r="I76" s="15">
-        <v>-684014</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-171121</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +2073,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>11</v>
       </c>
@@ -2046,69 +2081,69 @@
         <v>30</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>19</v>
+      <c r="E78" s="11">
+        <v>-232598</v>
       </c>
       <c r="F78" s="11">
-        <v>-232598</v>
+        <v>-109568</v>
       </c>
       <c r="G78" s="11">
-        <v>-109568</v>
+        <v>-147448</v>
       </c>
       <c r="H78" s="11">
-        <v>-147448</v>
+        <v>-522732</v>
       </c>
       <c r="I78" s="11">
-        <v>-522732</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-50411</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>-20161</v>
+        <v>-157</v>
       </c>
       <c r="F79" s="13">
-        <v>-157</v>
+        <v>-437032</v>
       </c>
       <c r="G79" s="13">
-        <v>-437032</v>
+        <v>0</v>
       </c>
       <c r="H79" s="13">
-        <v>0</v>
+        <v>-547923</v>
       </c>
       <c r="I79" s="13">
-        <v>-547923</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-499133</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
-        <v>-20161</v>
+        <v>-232755</v>
       </c>
       <c r="F80" s="17">
-        <v>-232755</v>
+        <v>-546600</v>
       </c>
       <c r="G80" s="17">
-        <v>-546600</v>
+        <v>-147448</v>
       </c>
       <c r="H80" s="17">
-        <v>-147448</v>
+        <v>-1070655</v>
       </c>
       <c r="I80" s="17">
-        <v>-1070655</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-549544</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +2155,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -2129,44 +2164,44 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="F82" s="11">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="G82" s="11">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="H82" s="11">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="I82" s="11">
-        <v>-43556</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-30676</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="F83" s="15">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="G83" s="15">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="H83" s="15">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="I83" s="15">
-        <v>-43556</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-30676</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>24</v>
       </c>
@@ -2175,22 +2210,22 @@
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>26</v>
       </c>
@@ -2198,11 +2233,11 @@
         <v>30</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15">
-        <v>0</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>19</v>
+      <c r="E85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0</v>
       </c>
       <c r="G85" s="15">
         <v>0</v>
@@ -2214,29 +2249,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
-        <v>-1405859</v>
+        <v>-722924</v>
       </c>
       <c r="F86" s="17">
-        <v>-722924</v>
+        <v>-2151446</v>
       </c>
       <c r="G86" s="17">
-        <v>-2151446</v>
+        <v>-982683</v>
       </c>
       <c r="H86" s="17">
-        <v>-982683</v>
+        <v>-1798225</v>
       </c>
       <c r="I86" s="17">
-        <v>-1798225</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-751341</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2246,7 +2281,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2256,7 +2291,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2266,7 +2301,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>45</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2298,7 +2333,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2345,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2319,48 +2354,48 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>5743</v>
+        <v>68621</v>
       </c>
       <c r="F93" s="11">
-        <v>68621</v>
+        <v>35300</v>
       </c>
       <c r="G93" s="11">
-        <v>35300</v>
+        <v>0</v>
       </c>
       <c r="H93" s="11">
         <v>0</v>
       </c>
       <c r="I93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>20603</v>
+        <v>-12127</v>
       </c>
       <c r="F94" s="13">
-        <v>-12127</v>
+        <v>42817</v>
       </c>
       <c r="G94" s="13">
-        <v>42817</v>
+        <v>0</v>
       </c>
       <c r="H94" s="13">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I94" s="13">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>30</v>
@@ -2382,77 +2417,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="F96" s="13">
-        <v>-17032</v>
+        <v>228409</v>
       </c>
       <c r="G96" s="13">
-        <v>228409</v>
+        <v>20843</v>
       </c>
       <c r="H96" s="13">
-        <v>20843</v>
+        <v>197</v>
       </c>
       <c r="I96" s="13">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>521030</v>
+        <v>117410</v>
       </c>
       <c r="F97" s="11">
-        <v>117410</v>
+        <v>108365</v>
       </c>
       <c r="G97" s="11">
-        <v>108365</v>
+        <v>95511</v>
       </c>
       <c r="H97" s="11">
-        <v>95511</v>
+        <v>372795</v>
       </c>
       <c r="I97" s="11">
-        <v>372795</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>567321</v>
+        <v>156872</v>
       </c>
       <c r="F98" s="15">
-        <v>156872</v>
+        <v>414891</v>
       </c>
       <c r="G98" s="15">
-        <v>414891</v>
+        <v>116354</v>
       </c>
       <c r="H98" s="15">
-        <v>116354</v>
+        <v>373230</v>
       </c>
       <c r="I98" s="15">
-        <v>373230</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>135316</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +2499,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>11</v>
       </c>
@@ -2472,69 +2507,69 @@
         <v>30</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>19</v>
+      <c r="E100" s="11">
+        <v>68379</v>
       </c>
       <c r="F100" s="11">
-        <v>68379</v>
+        <v>63131</v>
       </c>
       <c r="G100" s="11">
-        <v>63131</v>
+        <v>67261</v>
       </c>
       <c r="H100" s="11">
-        <v>67261</v>
+        <v>131706</v>
       </c>
       <c r="I100" s="11">
-        <v>131706</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-36739</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>473</v>
+        <v>-157</v>
       </c>
       <c r="F101" s="13">
-        <v>-157</v>
+        <v>24604</v>
       </c>
       <c r="G101" s="13">
-        <v>24604</v>
+        <v>0</v>
       </c>
       <c r="H101" s="13">
-        <v>0</v>
+        <v>309192</v>
       </c>
       <c r="I101" s="13">
-        <v>309192</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259029</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
-        <v>473</v>
+        <v>68222</v>
       </c>
       <c r="F102" s="17">
-        <v>68222</v>
+        <v>87735</v>
       </c>
       <c r="G102" s="17">
-        <v>87735</v>
+        <v>67261</v>
       </c>
       <c r="H102" s="17">
-        <v>67261</v>
+        <v>440898</v>
       </c>
       <c r="I102" s="17">
-        <v>440898</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>222290</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>50</v>
       </c>
@@ -2546,7 +2581,7 @@
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>22</v>
       </c>
@@ -2555,63 +2590,63 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="F104" s="11">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="G104" s="11">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="H104" s="11">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="I104" s="11">
-        <v>110486</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="F105" s="15">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="G105" s="15">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="H105" s="15">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="I105" s="15">
-        <v>110486</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>758364</v>
+        <v>326216</v>
       </c>
       <c r="F106" s="17">
-        <v>326216</v>
+        <v>618733</v>
       </c>
       <c r="G106" s="17">
-        <v>618733</v>
+        <v>433521</v>
       </c>
       <c r="H106" s="17">
-        <v>433521</v>
+        <v>924614</v>
       </c>
       <c r="I106" s="17">
-        <v>924614</v>
+        <v>403922</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C2D12-98D1-4BDB-9FCD-7FA68C149066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E85B3D6-64AC-486E-BEF7-F7CF2B44E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -648,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I106"/>
+  <dimension ref="B1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,8 +681,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +698,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,8 +715,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -700,8 +730,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,8 +747,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,8 +764,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -734,8 +779,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,8 +806,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,10 +831,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -778,71 +848,106 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>478</v>
+      </c>
+      <c r="J11" s="11">
         <v>409</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>162</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>95</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>70</v>
+      </c>
+      <c r="N12" s="13">
         <v>13</v>
       </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>70</v>
-      </c>
-      <c r="I12" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -850,80 +955,140 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>422</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
       </c>
       <c r="G14" s="13">
+        <v>740</v>
+      </c>
+      <c r="H14" s="13">
+        <v>406</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>188</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>170</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>8391</v>
+      </c>
+      <c r="F15" s="11">
+        <v>6080</v>
+      </c>
+      <c r="G15" s="11">
+        <v>24147</v>
+      </c>
+      <c r="H15" s="11">
+        <v>9573</v>
+      </c>
+      <c r="I15" s="11">
+        <v>15980</v>
+      </c>
+      <c r="J15" s="11">
         <v>3748</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>7143</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>9578</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>3049</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
+        <v>8892</v>
+      </c>
+      <c r="F16" s="15">
+        <v>6080</v>
+      </c>
+      <c r="G16" s="15">
+        <v>25649</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9979</v>
+      </c>
+      <c r="I16" s="15">
+        <v>16553</v>
+      </c>
+      <c r="J16" s="15">
         <v>4157</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>7331</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>9818</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>3095</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -932,80 +1097,130 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11">
         <v>401</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11">
         <v>246</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>775</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>13</v>
+      <c r="F19" s="13">
+        <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>184</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
         <v>4300</v>
       </c>
-      <c r="I19" s="13">
+      <c r="N19" s="13">
         <v>4322</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>5470</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>184</v>
+      </c>
+      <c r="J20" s="17">
         <v>401</v>
       </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
         <v>246</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>5075</v>
       </c>
-      <c r="I20" s="17">
+      <c r="N20" s="17">
         <v>4338</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1014,122 +1229,202 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>34628</v>
+      </c>
+      <c r="J22" s="11">
         <v>12495</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="K22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11">
         <v>20026</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>11003</v>
       </c>
-      <c r="I22" s="11">
+      <c r="N22" s="11">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>34628</v>
+      </c>
+      <c r="J23" s="15">
         <v>12495</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>20026</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>11003</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="H25" s="15">
-        <v>0</v>
+      <c r="H25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
+        <v>8892</v>
+      </c>
+      <c r="F26" s="17">
+        <v>6080</v>
+      </c>
+      <c r="G26" s="17">
+        <v>31119</v>
+      </c>
+      <c r="H26" s="17">
+        <v>9979</v>
+      </c>
+      <c r="I26" s="17">
+        <v>51365</v>
+      </c>
+      <c r="J26" s="17">
         <v>17053</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
         <v>27603</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>25896</v>
       </c>
-      <c r="I26" s="17">
+      <c r="N26" s="17">
         <v>12933</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1138,8 +1433,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1148,8 +1448,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1158,10 +1463,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1180,8 +1490,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1190,10 +1515,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1202,71 +1532,106 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>26257</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>308221</v>
+      </c>
+      <c r="J33" s="11">
         <v>280230</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
         <v>20680</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
+        <v>11839</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
       </c>
       <c r="G34" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>66370</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
         <v>23381</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>4564</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
+      <c r="F35" s="11">
+        <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -1274,80 +1639,140 @@
       <c r="I35" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
+        <v>75329</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
       </c>
       <c r="G36" s="13">
+        <v>222239</v>
+      </c>
+      <c r="H36" s="13">
+        <v>116399</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
         <v>54111</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>38584</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>3870</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>285345</v>
+      </c>
+      <c r="F37" s="11">
+        <v>554996</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1642561</v>
+      </c>
+      <c r="H37" s="11">
+        <v>891912</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1546418</v>
+      </c>
+      <c r="J37" s="11">
         <v>330488</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
         <v>867015</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>995279</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>277323</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
+        <v>398770</v>
+      </c>
+      <c r="F38" s="15">
+        <v>554997</v>
+      </c>
+      <c r="G38" s="15">
+        <v>2051644</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1008311</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1921009</v>
+      </c>
+      <c r="J38" s="15">
         <v>610718</v>
       </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
         <v>921126</v>
       </c>
-      <c r="H38" s="15">
+      <c r="M38" s="15">
         <v>1057244</v>
       </c>
-      <c r="I38" s="15">
+      <c r="N38" s="15">
         <v>306437</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1356,80 +1781,130 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="11">
         <v>300977</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
         <v>214709</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>654438</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>13672</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
         <v>0</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
+      <c r="F41" s="13">
+        <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <v>20634</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13">
         <v>857115</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>758162</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>612056</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>20634</v>
+      </c>
+      <c r="J42" s="17">
         <v>300977</v>
       </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
         <v>214709</v>
       </c>
-      <c r="H42" s="17">
+      <c r="M42" s="17">
         <v>1511553</v>
       </c>
-      <c r="I42" s="17">
+      <c r="N42" s="17">
         <v>771834</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1438,124 +1913,204 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>157463</v>
+      </c>
+      <c r="F44" s="11">
+        <v>96685</v>
+      </c>
+      <c r="G44" s="11">
+        <v>3318</v>
+      </c>
+      <c r="H44" s="11">
+        <v>87094</v>
+      </c>
+      <c r="I44" s="11">
+        <v>222580</v>
+      </c>
+      <c r="J44" s="11">
         <v>137445</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="11">
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11">
         <v>280369</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>154042</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>76992</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>157463</v>
+      </c>
+      <c r="F45" s="15">
+        <v>96685</v>
+      </c>
+      <c r="G45" s="15">
+        <v>3318</v>
+      </c>
+      <c r="H45" s="15">
+        <v>87094</v>
+      </c>
+      <c r="I45" s="15">
+        <v>222580</v>
+      </c>
+      <c r="J45" s="15">
         <v>137445</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
         <v>280369</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>154042</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N45" s="15">
         <v>76992</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>13</v>
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17">
+        <v>172</v>
+      </c>
+      <c r="G46" s="17">
+        <v>-172</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>172</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
+      <c r="H47" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
+        <v>556233</v>
+      </c>
+      <c r="F48" s="17">
+        <v>652026</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2666846</v>
+      </c>
+      <c r="H48" s="17">
+        <v>1095405</v>
+      </c>
+      <c r="I48" s="17">
+        <v>2164223</v>
+      </c>
+      <c r="J48" s="17">
         <v>1049140</v>
       </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
+      <c r="K48" s="17">
+        <v>0</v>
+      </c>
+      <c r="L48" s="17">
         <v>1416204</v>
       </c>
-      <c r="H48" s="17">
+      <c r="M48" s="17">
         <v>2722839</v>
       </c>
-      <c r="I48" s="17">
+      <c r="N48" s="17">
         <v>1155263</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1564,8 +2119,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1574,8 +2134,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1584,10 +2149,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1606,8 +2176,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1616,10 +2201,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1628,130 +2218,210 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>525140000</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="11">
+        <v>644813808</v>
+      </c>
+      <c r="J55" s="11">
         <v>685158924</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>878100000</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="11">
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11">
         <v>1292500000</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="E56" s="13">
+        <v>408241379</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="13">
+        <v>523697531</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="13">
+        <v>698631579</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="13">
         <v>613975207</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="13">
+      <c r="L56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="13">
         <v>334014286</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>351076923</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G57" s="11">
+        <v>170008333</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="E58" s="13">
+        <v>178504739</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="13">
+        <v>300322973</v>
+      </c>
+      <c r="H58" s="13">
+        <v>286697044</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="13">
         <v>353590460</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>287824468</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>226964706</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>227647059</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>34006078</v>
+      </c>
+      <c r="F59" s="11">
+        <v>91282237</v>
+      </c>
+      <c r="G59" s="11">
+        <v>68023398</v>
+      </c>
+      <c r="H59" s="11">
+        <v>93169539</v>
+      </c>
+      <c r="I59" s="11">
+        <v>96772090</v>
+      </c>
+      <c r="J59" s="11">
         <v>88177161</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>133600612</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>121379672</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>103913030</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>90955395</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1760,58 +2430,93 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11">
         <v>750566085</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>885635897</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>872800813</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>844436129</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>854500000</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="13">
+        <v>18</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="13">
+        <v>111893236</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="13">
+        <v>112141304</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13">
         <v>84394150</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="13">
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13">
         <v>199329070</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>175419250</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1820,32 +2525,52 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1854,8 +2579,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1864,8 +2594,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1874,10 +2609,15 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -1896,8 +2636,23 @@
       <c r="I68" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1906,10 +2661,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1918,61 +2678,96 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>-13284</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-302478</v>
+      </c>
+      <c r="J71" s="11">
         <v>-211609</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>-52510</v>
       </c>
-      <c r="G71" s="11">
-        <v>0</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
         <v>-18489</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>-12273</v>
+      </c>
+      <c r="F72" s="13">
+        <v>3213</v>
+      </c>
+      <c r="G72" s="13">
+        <v>-51636</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
+        <v>-45767</v>
+      </c>
+      <c r="J72" s="13">
         <v>-12127</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>-31474</v>
       </c>
-      <c r="G72" s="13">
-        <v>0</v>
-      </c>
-      <c r="H72" s="13">
+      <c r="L72" s="13">
+        <v>0</v>
+      </c>
+      <c r="M72" s="13">
         <v>-23143</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>-4320</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
@@ -1982,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="11">
-        <v>0</v>
+        <v>-53984</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -1990,80 +2785,140 @@
       <c r="I73" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>-67582</v>
+      </c>
+      <c r="F74" s="13">
+        <v>10118</v>
+      </c>
+      <c r="G74" s="13">
+        <v>-120140</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-102630</v>
+      </c>
+      <c r="I74" s="13">
+        <v>19945</v>
+      </c>
+      <c r="J74" s="13">
         <v>-17032</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>-379413</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>-33268</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>-38387</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>-111</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>-250200</v>
+      </c>
+      <c r="F75" s="11">
+        <v>-336839</v>
+      </c>
+      <c r="G75" s="11">
+        <v>-1069233</v>
+      </c>
+      <c r="H75" s="11">
+        <v>-587864</v>
+      </c>
+      <c r="I75" s="11">
+        <v>-1025388</v>
+      </c>
+      <c r="J75" s="11">
         <v>-213078</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>-1113947</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>-771504</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>-622484</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>-148201</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
+        <v>-343339</v>
+      </c>
+      <c r="F76" s="15">
+        <v>-323508</v>
+      </c>
+      <c r="G76" s="15">
+        <v>-1294993</v>
+      </c>
+      <c r="H76" s="15">
+        <v>-690494</v>
+      </c>
+      <c r="I76" s="15">
+        <v>-1353688</v>
+      </c>
+      <c r="J76" s="15">
         <v>-453846</v>
       </c>
-      <c r="F76" s="15">
+      <c r="K76" s="15">
         <v>-1577344</v>
       </c>
-      <c r="G76" s="15">
+      <c r="L76" s="15">
         <v>-804772</v>
       </c>
-      <c r="H76" s="15">
+      <c r="M76" s="15">
         <v>-684014</v>
       </c>
-      <c r="I76" s="15">
+      <c r="N76" s="15">
         <v>-171121</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2072,80 +2927,130 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11">
         <v>-232598</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>-109568</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>-147448</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>-522732</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-50411</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13">
+        <v>-492275</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>-20161</v>
+      </c>
+      <c r="J79" s="13">
         <v>-157</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>-437032</v>
       </c>
-      <c r="G79" s="13">
-        <v>0</v>
-      </c>
-      <c r="H79" s="13">
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
         <v>-547923</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>-499133</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0</v>
+      </c>
+      <c r="G80" s="17">
+        <v>-492275</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0</v>
+      </c>
+      <c r="I80" s="17">
+        <v>-20161</v>
+      </c>
+      <c r="J80" s="17">
         <v>-232755</v>
       </c>
-      <c r="F80" s="17">
+      <c r="K80" s="17">
         <v>-546600</v>
       </c>
-      <c r="G80" s="17">
+      <c r="L80" s="17">
         <v>-147448</v>
       </c>
-      <c r="H80" s="17">
+      <c r="M80" s="17">
         <v>-1070655</v>
       </c>
-      <c r="I80" s="17">
+      <c r="N80" s="17">
         <v>-549544</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2154,87 +3059,137 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-49014</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-24880</v>
+      </c>
+      <c r="G82" s="11">
+        <v>4789</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-20663</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-32010</v>
+      </c>
+      <c r="J82" s="11">
         <v>-36323</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-27502</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-30463</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-43556</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>-30676</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>-49014</v>
+      </c>
+      <c r="F83" s="15">
+        <v>-24880</v>
+      </c>
+      <c r="G83" s="15">
+        <v>4789</v>
+      </c>
+      <c r="H83" s="15">
+        <v>-20663</v>
+      </c>
+      <c r="I83" s="15">
+        <v>-32010</v>
+      </c>
+      <c r="J83" s="15">
         <v>-36323</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>-27502</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>-30463</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>-43556</v>
       </c>
-      <c r="I83" s="15">
+      <c r="N83" s="15">
         <v>-30676</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>13</v>
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
-        <v>13</v>
+      <c r="E85" s="15">
+        <v>0</v>
       </c>
       <c r="F85" s="15">
         <v>0</v>
@@ -2242,36 +3197,66 @@
       <c r="G85" s="15">
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
+      <c r="H85" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0</v>
+      </c>
+      <c r="L85" s="15">
+        <v>0</v>
+      </c>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
+        <v>-392353</v>
+      </c>
+      <c r="F86" s="17">
+        <v>-348388</v>
+      </c>
+      <c r="G86" s="17">
+        <v>-1782479</v>
+      </c>
+      <c r="H86" s="17">
+        <v>-711157</v>
+      </c>
+      <c r="I86" s="17">
+        <v>-1405859</v>
+      </c>
+      <c r="J86" s="17">
         <v>-722924</v>
       </c>
-      <c r="F86" s="17">
+      <c r="K86" s="17">
         <v>-2151446</v>
       </c>
-      <c r="G86" s="17">
+      <c r="L86" s="17">
         <v>-982683</v>
       </c>
-      <c r="H86" s="17">
+      <c r="M86" s="17">
         <v>-1798225</v>
       </c>
-      <c r="I86" s="17">
+      <c r="N86" s="17">
         <v>-751341</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2280,8 +3265,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2290,8 +3280,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2300,10 +3295,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2322,8 +3322,23 @@
       <c r="I90" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2332,10 +3347,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2344,61 +3364,96 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>12973</v>
+      </c>
+      <c r="F93" s="11">
+        <v>1</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>5743</v>
+      </c>
+      <c r="J93" s="11">
         <v>68621</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>35300</v>
       </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
         <v>2191</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
+        <v>-434</v>
+      </c>
+      <c r="F94" s="13">
+        <v>3213</v>
+      </c>
+      <c r="G94" s="13">
+        <v>33203</v>
+      </c>
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
+        <v>20603</v>
+      </c>
+      <c r="J94" s="13">
         <v>-12127</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>42817</v>
       </c>
-      <c r="G94" s="13">
-        <v>0</v>
-      </c>
-      <c r="H94" s="13">
+      <c r="L94" s="13">
+        <v>0</v>
+      </c>
+      <c r="M94" s="13">
         <v>238</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
@@ -2408,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="11">
-        <v>0</v>
+        <v>48021</v>
       </c>
       <c r="H95" s="11">
         <v>0</v>
@@ -2416,80 +3471,140 @@
       <c r="I95" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11">
+        <v>0</v>
+      </c>
+      <c r="M95" s="11">
+        <v>0</v>
+      </c>
+      <c r="N95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
+        <v>7747</v>
+      </c>
+      <c r="F96" s="13">
+        <v>10118</v>
+      </c>
+      <c r="G96" s="13">
+        <v>102099</v>
+      </c>
+      <c r="H96" s="13">
+        <v>13769</v>
+      </c>
+      <c r="I96" s="13">
+        <v>19945</v>
+      </c>
+      <c r="J96" s="13">
         <v>-17032</v>
       </c>
-      <c r="F96" s="13">
+      <c r="K96" s="13">
         <v>228409</v>
       </c>
-      <c r="G96" s="13">
+      <c r="L96" s="13">
         <v>20843</v>
       </c>
-      <c r="H96" s="13">
+      <c r="M96" s="13">
         <v>197</v>
       </c>
-      <c r="I96" s="13">
+      <c r="N96" s="13">
         <v>3759</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>35145</v>
+      </c>
+      <c r="F97" s="11">
+        <v>218157</v>
+      </c>
+      <c r="G97" s="11">
+        <v>573328</v>
+      </c>
+      <c r="H97" s="11">
+        <v>304048</v>
+      </c>
+      <c r="I97" s="11">
+        <v>521030</v>
+      </c>
+      <c r="J97" s="11">
         <v>117410</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>108365</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>95511</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>372795</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>129122</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
+        <v>55431</v>
+      </c>
+      <c r="F98" s="15">
+        <v>231489</v>
+      </c>
+      <c r="G98" s="15">
+        <v>756651</v>
+      </c>
+      <c r="H98" s="15">
+        <v>317817</v>
+      </c>
+      <c r="I98" s="15">
+        <v>567321</v>
+      </c>
+      <c r="J98" s="15">
         <v>156872</v>
       </c>
-      <c r="F98" s="15">
+      <c r="K98" s="15">
         <v>414891</v>
       </c>
-      <c r="G98" s="15">
+      <c r="L98" s="15">
         <v>116354</v>
       </c>
-      <c r="H98" s="15">
+      <c r="M98" s="15">
         <v>373230</v>
       </c>
-      <c r="I98" s="15">
+      <c r="N98" s="15">
         <v>135316</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2498,80 +3613,130 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>0</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11">
         <v>68379</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>63131</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>67261</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>131706</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>-36739</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13">
+        <v>119781</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
+        <v>473</v>
+      </c>
+      <c r="J101" s="13">
         <v>-157</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>24604</v>
       </c>
-      <c r="G101" s="13">
-        <v>0</v>
-      </c>
-      <c r="H101" s="13">
+      <c r="L101" s="13">
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
         <v>309192</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>259029</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0</v>
+      </c>
+      <c r="G102" s="17">
+        <v>119781</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17">
+        <v>473</v>
+      </c>
+      <c r="J102" s="17">
         <v>68222</v>
       </c>
-      <c r="F102" s="17">
+      <c r="K102" s="17">
         <v>87735</v>
       </c>
-      <c r="G102" s="17">
+      <c r="L102" s="17">
         <v>67261</v>
       </c>
-      <c r="H102" s="17">
+      <c r="M102" s="17">
         <v>440898</v>
       </c>
-      <c r="I102" s="17">
+      <c r="N102" s="17">
         <v>222290</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -2580,72 +3745,122 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>108449</v>
+      </c>
+      <c r="F104" s="11">
+        <v>71805</v>
+      </c>
+      <c r="G104" s="11">
+        <v>8107</v>
+      </c>
+      <c r="H104" s="11">
+        <v>66431</v>
+      </c>
+      <c r="I104" s="11">
+        <v>190570</v>
+      </c>
+      <c r="J104" s="11">
         <v>101122</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>116107</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>249906</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>110486</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>46316</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
+        <v>108449</v>
+      </c>
+      <c r="F105" s="15">
+        <v>71805</v>
+      </c>
+      <c r="G105" s="15">
+        <v>8107</v>
+      </c>
+      <c r="H105" s="15">
+        <v>66431</v>
+      </c>
+      <c r="I105" s="15">
+        <v>190570</v>
+      </c>
+      <c r="J105" s="15">
         <v>101122</v>
       </c>
-      <c r="F105" s="15">
+      <c r="K105" s="15">
         <v>116107</v>
       </c>
-      <c r="G105" s="15">
+      <c r="L105" s="15">
         <v>249906</v>
       </c>
-      <c r="H105" s="15">
+      <c r="M105" s="15">
         <v>110486</v>
       </c>
-      <c r="I105" s="15">
+      <c r="N105" s="15">
         <v>46316</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
+        <v>163880</v>
+      </c>
+      <c r="F106" s="17">
+        <v>303294</v>
+      </c>
+      <c r="G106" s="17">
+        <v>884539</v>
+      </c>
+      <c r="H106" s="17">
+        <v>384248</v>
+      </c>
+      <c r="I106" s="17">
+        <v>758364</v>
+      </c>
+      <c r="J106" s="17">
         <v>326216</v>
       </c>
-      <c r="F106" s="17">
+      <c r="K106" s="17">
         <v>618733</v>
       </c>
-      <c r="G106" s="17">
+      <c r="L106" s="17">
         <v>433521</v>
       </c>
-      <c r="H106" s="17">
+      <c r="M106" s="17">
         <v>924614</v>
       </c>
-      <c r="I106" s="17">
+      <c r="N106" s="17">
         <v>403922</v>
       </c>
     </row>

--- a/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E85B3D6-64AC-486E-BEF7-F7CF2B44E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD53A773-8231-4F44-A492-B1456B2E4E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کیمیا-معدنی کیمیای زنجان گستران</t>
+    <t>کیمیا-ص. معدنی کیمیای زنجان گستران</t>
   </si>
   <si>
     <t>تولید و فروش</t>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -667,12 +667,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -687,7 +687,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -736,7 +736,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -785,7 +785,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -837,7 +837,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="I11" s="11">
-        <v>478</v>
-      </c>
-      <c r="J11" s="11">
         <v>409</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N11" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -902,37 +902,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G12" s="13">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I12" s="13">
-        <v>95</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M12" s="13">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N12" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G13" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -955,11 +955,11 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -980,37 +980,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="G14" s="13">
-        <v>740</v>
+        <v>406</v>
       </c>
       <c r="H14" s="13">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>188</v>
       </c>
       <c r="L14" s="13">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M14" s="13">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N14" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1019,74 +1019,74 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>8391</v>
+        <v>6080</v>
       </c>
       <c r="F15" s="11">
-        <v>6080</v>
+        <v>24147</v>
       </c>
       <c r="G15" s="11">
-        <v>24147</v>
+        <v>9573</v>
       </c>
       <c r="H15" s="11">
-        <v>9573</v>
+        <v>15980</v>
       </c>
       <c r="I15" s="11">
-        <v>15980</v>
-      </c>
-      <c r="J15" s="11">
         <v>3748</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>7143</v>
       </c>
       <c r="L15" s="11">
-        <v>7143</v>
+        <v>9578</v>
       </c>
       <c r="M15" s="11">
-        <v>9578</v>
+        <v>3049</v>
       </c>
       <c r="N15" s="11">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>8892</v>
+        <v>6080</v>
       </c>
       <c r="F16" s="15">
-        <v>6080</v>
+        <v>25649</v>
       </c>
       <c r="G16" s="15">
-        <v>25649</v>
+        <v>9979</v>
       </c>
       <c r="H16" s="15">
-        <v>9979</v>
+        <v>16553</v>
       </c>
       <c r="I16" s="15">
-        <v>16553</v>
+        <v>4157</v>
       </c>
       <c r="J16" s="15">
-        <v>4157</v>
+        <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>7331</v>
       </c>
       <c r="L16" s="15">
-        <v>7331</v>
+        <v>9818</v>
       </c>
       <c r="M16" s="15">
-        <v>9818</v>
+        <v>3095</v>
       </c>
       <c r="N16" s="15">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1114,8 +1114,8 @@
       <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>18</v>
@@ -1123,26 +1123,26 @@
       <c r="H18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="I18" s="11">
         <v>401</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>246</v>
       </c>
       <c r="L18" s="11">
-        <v>246</v>
+        <v>775</v>
       </c>
       <c r="M18" s="11">
-        <v>775</v>
+        <v>16</v>
       </c>
       <c r="N18" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1154,34 +1154,34 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="G19" s="13">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I19" s="13">
-        <v>184</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
       </c>
       <c r="L19" s="13">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="M19" s="13">
-        <v>4300</v>
+        <v>4322</v>
       </c>
       <c r="N19" s="13">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1191,34 +1191,34 @@
         <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="G20" s="17">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I20" s="17">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="J20" s="17">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="K20" s="17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L20" s="17">
-        <v>246</v>
+        <v>5075</v>
       </c>
       <c r="M20" s="17">
-        <v>5075</v>
+        <v>4338</v>
       </c>
       <c r="N20" s="17">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
@@ -1253,28 +1253,28 @@
         <v>0</v>
       </c>
       <c r="H22" s="11">
-        <v>0</v>
+        <v>34628</v>
       </c>
       <c r="I22" s="11">
-        <v>34628</v>
-      </c>
-      <c r="J22" s="11">
         <v>12495</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>18</v>
+      <c r="J22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11">
+        <v>20026</v>
       </c>
       <c r="L22" s="11">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="M22" s="11">
-        <v>11003</v>
+        <v>5500</v>
       </c>
       <c r="N22" s="11">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>28</v>
       </c>
@@ -1290,28 +1290,28 @@
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <v>0</v>
+        <v>34628</v>
       </c>
       <c r="I23" s="15">
-        <v>34628</v>
+        <v>12495</v>
       </c>
       <c r="J23" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="K23" s="15">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="L23" s="15">
-        <v>20026</v>
+        <v>11003</v>
       </c>
       <c r="M23" s="15">
-        <v>11003</v>
+        <v>5500</v>
       </c>
       <c r="N23" s="15">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
@@ -1328,8 +1328,8 @@
       <c r="G24" s="17">
         <v>0</v>
       </c>
-      <c r="H24" s="17">
-        <v>0</v>
+      <c r="H24" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>18</v>
@@ -1350,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1362,20 +1362,20 @@
       <c r="F25" s="15">
         <v>0</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0</v>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>18</v>
+      <c r="K25" s="15">
+        <v>0</v>
       </c>
       <c r="L25" s="15">
         <v>0</v>
@@ -1387,44 +1387,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>8892</v>
+        <v>6080</v>
       </c>
       <c r="F26" s="17">
-        <v>6080</v>
+        <v>31119</v>
       </c>
       <c r="G26" s="17">
-        <v>31119</v>
+        <v>9979</v>
       </c>
       <c r="H26" s="17">
-        <v>9979</v>
+        <v>51365</v>
       </c>
       <c r="I26" s="17">
-        <v>51365</v>
+        <v>17053</v>
       </c>
       <c r="J26" s="17">
-        <v>17053</v>
+        <v>0</v>
       </c>
       <c r="K26" s="17">
-        <v>0</v>
+        <v>27603</v>
       </c>
       <c r="L26" s="17">
-        <v>27603</v>
+        <v>25896</v>
       </c>
       <c r="M26" s="17">
-        <v>25896</v>
+        <v>12933</v>
       </c>
       <c r="N26" s="17">
-        <v>12933</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39765</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1439,7 +1439,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1469,7 +1469,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1521,7 +1521,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1547,37 +1547,37 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>26257</v>
+        <v>1</v>
       </c>
       <c r="F33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="11">
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>308221</v>
       </c>
       <c r="I33" s="11">
-        <v>308221</v>
-      </c>
-      <c r="J33" s="11">
         <v>280230</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>18</v>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
       </c>
       <c r="L33" s="11">
         <v>0</v>
       </c>
       <c r="M33" s="11">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="N33" s="11">
-        <v>20680</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="G34" s="13">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="I34" s="13">
-        <v>66370</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0</v>
       </c>
       <c r="L34" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="M34" s="13">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="N34" s="13">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="G35" s="11">
-        <v>102005</v>
+        <v>0</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -1639,11 +1639,11 @@
       <c r="I35" s="11">
         <v>0</v>
       </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>18</v>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="11">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1664,37 +1664,37 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>75329</v>
+        <v>0</v>
       </c>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>222239</v>
       </c>
       <c r="G36" s="13">
-        <v>222239</v>
+        <v>116399</v>
       </c>
       <c r="H36" s="13">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="13">
-        <v>0</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>18</v>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13">
+        <v>54111</v>
       </c>
       <c r="L36" s="13">
-        <v>54111</v>
+        <v>38584</v>
       </c>
       <c r="M36" s="13">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="N36" s="13">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1703,74 +1703,74 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>285345</v>
+        <v>554996</v>
       </c>
       <c r="F37" s="11">
-        <v>554996</v>
+        <v>1642561</v>
       </c>
       <c r="G37" s="11">
-        <v>1642561</v>
+        <v>891912</v>
       </c>
       <c r="H37" s="11">
-        <v>891912</v>
+        <v>1546418</v>
       </c>
       <c r="I37" s="11">
-        <v>1546418</v>
-      </c>
-      <c r="J37" s="11">
         <v>330488</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>18</v>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
+        <v>867015</v>
       </c>
       <c r="L37" s="11">
-        <v>867015</v>
+        <v>995279</v>
       </c>
       <c r="M37" s="11">
-        <v>995279</v>
+        <v>277323</v>
       </c>
       <c r="N37" s="11">
-        <v>277323</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1009277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>398770</v>
+        <v>554997</v>
       </c>
       <c r="F38" s="15">
-        <v>554997</v>
+        <v>2051644</v>
       </c>
       <c r="G38" s="15">
-        <v>2051644</v>
+        <v>1008311</v>
       </c>
       <c r="H38" s="15">
-        <v>1008311</v>
+        <v>1921009</v>
       </c>
       <c r="I38" s="15">
-        <v>1921009</v>
+        <v>610718</v>
       </c>
       <c r="J38" s="15">
-        <v>610718</v>
+        <v>0</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>921126</v>
       </c>
       <c r="L38" s="15">
-        <v>921126</v>
+        <v>1057244</v>
       </c>
       <c r="M38" s="15">
-        <v>1057244</v>
+        <v>306437</v>
       </c>
       <c r="N38" s="15">
-        <v>306437</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1009277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1798,8 +1798,8 @@
       <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
+      <c r="F40" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>18</v>
@@ -1807,26 +1807,26 @@
       <c r="H40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="I40" s="11">
         <v>300977</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>214709</v>
       </c>
       <c r="L40" s="11">
-        <v>214709</v>
+        <v>654438</v>
       </c>
       <c r="M40" s="11">
-        <v>654438</v>
+        <v>13672</v>
       </c>
       <c r="N40" s="11">
-        <v>13672</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>641238</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
@@ -1838,34 +1838,34 @@
         <v>0</v>
       </c>
       <c r="F41" s="13">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="G41" s="13">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="I41" s="13">
-        <v>20634</v>
-      </c>
-      <c r="J41" s="13">
-        <v>0</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
       </c>
       <c r="L41" s="13">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="M41" s="13">
-        <v>857115</v>
+        <v>758162</v>
       </c>
       <c r="N41" s="13">
-        <v>758162</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1484857</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>25</v>
       </c>
@@ -1875,34 +1875,34 @@
         <v>0</v>
       </c>
       <c r="F42" s="17">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="G42" s="17">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="H42" s="17">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="I42" s="17">
-        <v>20634</v>
+        <v>300977</v>
       </c>
       <c r="J42" s="17">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="K42" s="17">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="L42" s="17">
-        <v>214709</v>
+        <v>1511553</v>
       </c>
       <c r="M42" s="17">
-        <v>1511553</v>
+        <v>771834</v>
       </c>
       <c r="N42" s="17">
-        <v>771834</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2126095</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>27</v>
       </c>
@@ -1928,74 +1928,74 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="F44" s="11">
-        <v>96685</v>
+        <v>3318</v>
       </c>
       <c r="G44" s="11">
-        <v>3318</v>
+        <v>87094</v>
       </c>
       <c r="H44" s="11">
-        <v>87094</v>
+        <v>222580</v>
       </c>
       <c r="I44" s="11">
-        <v>222580</v>
-      </c>
-      <c r="J44" s="11">
         <v>137445</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>18</v>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11">
+        <v>280369</v>
       </c>
       <c r="L44" s="11">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="M44" s="11">
-        <v>154042</v>
+        <v>76992</v>
       </c>
       <c r="N44" s="11">
-        <v>76992</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="F45" s="15">
-        <v>96685</v>
+        <v>3318</v>
       </c>
       <c r="G45" s="15">
-        <v>3318</v>
+        <v>87094</v>
       </c>
       <c r="H45" s="15">
-        <v>87094</v>
+        <v>222580</v>
       </c>
       <c r="I45" s="15">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="J45" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="K45" s="15">
-        <v>0</v>
+        <v>280369</v>
       </c>
       <c r="L45" s="15">
-        <v>280369</v>
+        <v>154042</v>
       </c>
       <c r="M45" s="15">
-        <v>154042</v>
+        <v>76992</v>
       </c>
       <c r="N45" s="15">
-        <v>76992</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>29</v>
       </c>
@@ -2004,16 +2004,16 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F46" s="17">
-        <v>172</v>
+        <v>-172</v>
       </c>
       <c r="G46" s="17">
-        <v>-172</v>
-      </c>
-      <c r="H46" s="17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>18</v>
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>31</v>
       </c>
@@ -2043,25 +2043,25 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F47" s="15">
-        <v>172</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="15" t="s">
-        <v>18</v>
+      <c r="K47" s="15">
+        <v>0</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -2073,44 +2073,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>556233</v>
+        <v>652026</v>
       </c>
       <c r="F48" s="17">
-        <v>652026</v>
+        <v>2666846</v>
       </c>
       <c r="G48" s="17">
-        <v>2666846</v>
+        <v>1095405</v>
       </c>
       <c r="H48" s="17">
-        <v>1095405</v>
+        <v>2164223</v>
       </c>
       <c r="I48" s="17">
-        <v>2164223</v>
+        <v>1049140</v>
       </c>
       <c r="J48" s="17">
-        <v>1049140</v>
+        <v>0</v>
       </c>
       <c r="K48" s="17">
-        <v>0</v>
+        <v>1416204</v>
       </c>
       <c r="L48" s="17">
-        <v>1416204</v>
+        <v>2722839</v>
       </c>
       <c r="M48" s="17">
-        <v>2722839</v>
+        <v>1155263</v>
       </c>
       <c r="N48" s="17">
-        <v>1155263</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3552373</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2125,7 +2125,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2155,7 +2155,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>38</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2207,7 +2207,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2232,8 +2232,8 @@
         <v>40</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
-        <v>525140000</v>
+      <c r="E55" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>18</v>
@@ -2241,29 +2241,29 @@
       <c r="G55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>18</v>
+      <c r="H55" s="11">
+        <v>644813808</v>
       </c>
       <c r="I55" s="11">
-        <v>644813808</v>
+        <v>685158924</v>
       </c>
       <c r="J55" s="11">
-        <v>685158924</v>
-      </c>
-      <c r="K55" s="11">
         <v>878100000</v>
       </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="11">
+      <c r="M55" s="11">
         <v>1292500000</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2271,38 +2271,38 @@
         <v>40</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13">
-        <v>408241379</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13">
         <v>523697531</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="G56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="13">
         <v>698631579</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="13">
+      <c r="I56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="13">
         <v>613975207</v>
       </c>
-      <c r="L56" s="13" t="s">
-        <v>18</v>
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13">
+        <v>334014286</v>
       </c>
       <c r="M56" s="13">
-        <v>334014286</v>
-      </c>
-      <c r="N56" s="13">
         <v>351076923</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2313,12 +2313,12 @@
       <c r="E57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F57" s="11">
         <v>170008333</v>
       </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
@@ -2349,38 +2349,38 @@
         <v>40</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13">
-        <v>178504739</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>18</v>
+      <c r="E58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="13">
+        <v>300322973</v>
       </c>
       <c r="G58" s="13">
-        <v>300322973</v>
-      </c>
-      <c r="H58" s="13">
         <v>286697044</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="13" t="s">
-        <v>18</v>
+      <c r="J58" s="13">
+        <v>353590460</v>
       </c>
       <c r="K58" s="13">
-        <v>353590460</v>
+        <v>287824468</v>
       </c>
       <c r="L58" s="13">
-        <v>287824468</v>
+        <v>226964706</v>
       </c>
       <c r="M58" s="13">
-        <v>226964706</v>
-      </c>
-      <c r="N58" s="13">
         <v>227647059</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2389,37 +2389,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>34006078</v>
+        <v>91282237</v>
       </c>
       <c r="F59" s="11">
-        <v>91282237</v>
+        <v>68023398</v>
       </c>
       <c r="G59" s="11">
-        <v>68023398</v>
+        <v>93169539</v>
       </c>
       <c r="H59" s="11">
-        <v>93169539</v>
+        <v>96772090</v>
       </c>
       <c r="I59" s="11">
-        <v>96772090</v>
+        <v>88177161</v>
       </c>
       <c r="J59" s="11">
-        <v>88177161</v>
+        <v>133600612</v>
       </c>
       <c r="K59" s="11">
-        <v>133600612</v>
+        <v>121379672</v>
       </c>
       <c r="L59" s="11">
-        <v>121379672</v>
+        <v>103913030</v>
       </c>
       <c r="M59" s="11">
-        <v>103913030</v>
+        <v>90955395</v>
       </c>
       <c r="N59" s="11">
-        <v>90955395</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>187842360</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2456,26 +2456,26 @@
       <c r="H61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>18</v>
+      <c r="I61" s="11">
+        <v>750566085</v>
       </c>
       <c r="J61" s="11">
-        <v>750566085</v>
+        <v>885635897</v>
       </c>
       <c r="K61" s="11">
-        <v>885635897</v>
+        <v>872800813</v>
       </c>
       <c r="L61" s="11">
-        <v>872800813</v>
+        <v>844436129</v>
       </c>
       <c r="M61" s="11">
-        <v>844436129</v>
+        <v>854500000</v>
       </c>
       <c r="N61" s="11">
-        <v>854500000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1083172297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
@@ -2486,35 +2486,35 @@
       <c r="E62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="F62" s="13">
         <v>111893236</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="13">
+      <c r="G62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="13">
         <v>112141304</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="13">
+      <c r="I62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13">
         <v>84394150</v>
       </c>
-      <c r="L62" s="13" t="s">
-        <v>18</v>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13">
+        <v>199329070</v>
       </c>
       <c r="M62" s="13">
-        <v>199329070</v>
+        <v>175419250</v>
       </c>
       <c r="N62" s="13">
-        <v>175419250</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247476167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>27</v>
       </c>
@@ -2566,11 +2566,11 @@
       <c r="M64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N64" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="11">
+        <v>15000036</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2600,7 +2600,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2667,7 +2667,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>44</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-13284</v>
+        <v>0</v>
       </c>
       <c r="F71" s="11">
         <v>0</v>
@@ -2702,28 +2702,28 @@
         <v>0</v>
       </c>
       <c r="H71" s="11">
-        <v>0</v>
+        <v>-302478</v>
       </c>
       <c r="I71" s="11">
-        <v>-302478</v>
+        <v>-211609</v>
       </c>
       <c r="J71" s="11">
-        <v>-211609</v>
+        <v>-52510</v>
       </c>
       <c r="K71" s="11">
-        <v>-52510</v>
+        <v>0</v>
       </c>
       <c r="L71" s="11">
         <v>0</v>
       </c>
       <c r="M71" s="11">
-        <v>0</v>
+        <v>-18489</v>
       </c>
       <c r="N71" s="11">
-        <v>-18489</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2732,37 +2732,37 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>-12273</v>
+        <v>3213</v>
       </c>
       <c r="F72" s="13">
-        <v>3213</v>
+        <v>-51636</v>
       </c>
       <c r="G72" s="13">
-        <v>-51636</v>
+        <v>0</v>
       </c>
       <c r="H72" s="13">
-        <v>0</v>
+        <v>-45767</v>
       </c>
       <c r="I72" s="13">
-        <v>-45767</v>
+        <v>-12127</v>
       </c>
       <c r="J72" s="13">
-        <v>-12127</v>
+        <v>-31474</v>
       </c>
       <c r="K72" s="13">
-        <v>-31474</v>
+        <v>0</v>
       </c>
       <c r="L72" s="13">
-        <v>0</v>
+        <v>-23143</v>
       </c>
       <c r="M72" s="13">
-        <v>-23143</v>
+        <v>-4320</v>
       </c>
       <c r="N72" s="13">
-        <v>-4320</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="11">
-        <v>0</v>
+        <v>-53984</v>
       </c>
       <c r="G73" s="11">
-        <v>-53984</v>
+        <v>0</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>21</v>
       </c>
@@ -2810,37 +2810,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>-67582</v>
+        <v>10118</v>
       </c>
       <c r="F74" s="13">
-        <v>10118</v>
+        <v>-120140</v>
       </c>
       <c r="G74" s="13">
-        <v>-120140</v>
+        <v>-102630</v>
       </c>
       <c r="H74" s="13">
-        <v>-102630</v>
+        <v>19945</v>
       </c>
       <c r="I74" s="13">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="J74" s="13">
-        <v>-17032</v>
+        <v>-379413</v>
       </c>
       <c r="K74" s="13">
-        <v>-379413</v>
+        <v>-33268</v>
       </c>
       <c r="L74" s="13">
-        <v>-33268</v>
+        <v>-38387</v>
       </c>
       <c r="M74" s="13">
-        <v>-38387</v>
+        <v>-111</v>
       </c>
       <c r="N74" s="13">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>22</v>
       </c>
@@ -2849,74 +2849,74 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>-250200</v>
+        <v>-336839</v>
       </c>
       <c r="F75" s="11">
-        <v>-336839</v>
+        <v>-1069233</v>
       </c>
       <c r="G75" s="11">
-        <v>-1069233</v>
+        <v>-587864</v>
       </c>
       <c r="H75" s="11">
-        <v>-587864</v>
+        <v>-1025388</v>
       </c>
       <c r="I75" s="11">
-        <v>-1025388</v>
+        <v>-213078</v>
       </c>
       <c r="J75" s="11">
-        <v>-213078</v>
+        <v>-1113947</v>
       </c>
       <c r="K75" s="11">
-        <v>-1113947</v>
+        <v>-771504</v>
       </c>
       <c r="L75" s="11">
-        <v>-771504</v>
+        <v>-622484</v>
       </c>
       <c r="M75" s="11">
-        <v>-622484</v>
+        <v>-148201</v>
       </c>
       <c r="N75" s="11">
-        <v>-148201</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-650619</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>-343339</v>
+        <v>-323508</v>
       </c>
       <c r="F76" s="15">
-        <v>-323508</v>
+        <v>-1294993</v>
       </c>
       <c r="G76" s="15">
-        <v>-1294993</v>
+        <v>-690494</v>
       </c>
       <c r="H76" s="15">
-        <v>-690494</v>
+        <v>-1353688</v>
       </c>
       <c r="I76" s="15">
-        <v>-1353688</v>
+        <v>-453846</v>
       </c>
       <c r="J76" s="15">
-        <v>-453846</v>
+        <v>-1577344</v>
       </c>
       <c r="K76" s="15">
-        <v>-1577344</v>
+        <v>-804772</v>
       </c>
       <c r="L76" s="15">
-        <v>-804772</v>
+        <v>-684014</v>
       </c>
       <c r="M76" s="15">
-        <v>-684014</v>
+        <v>-171121</v>
       </c>
       <c r="N76" s="15">
-        <v>-171121</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-643495</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>46</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>16</v>
       </c>
@@ -2944,8 +2944,8 @@
       <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="11">
-        <v>0</v>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>18</v>
@@ -2953,26 +2953,26 @@
       <c r="H78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>18</v>
+      <c r="I78" s="11">
+        <v>-232598</v>
       </c>
       <c r="J78" s="11">
-        <v>-232598</v>
+        <v>-109568</v>
       </c>
       <c r="K78" s="11">
-        <v>-109568</v>
+        <v>-147448</v>
       </c>
       <c r="L78" s="11">
-        <v>-147448</v>
+        <v>-522732</v>
       </c>
       <c r="M78" s="11">
-        <v>-522732</v>
+        <v>-50411</v>
       </c>
       <c r="N78" s="11">
-        <v>-50411</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-576562</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>20</v>
       </c>
@@ -2984,34 +2984,34 @@
         <v>0</v>
       </c>
       <c r="F79" s="13">
-        <v>0</v>
+        <v>-492275</v>
       </c>
       <c r="G79" s="13">
-        <v>-492275</v>
+        <v>0</v>
       </c>
       <c r="H79" s="13">
-        <v>0</v>
+        <v>-20161</v>
       </c>
       <c r="I79" s="13">
-        <v>-20161</v>
+        <v>-157</v>
       </c>
       <c r="J79" s="13">
-        <v>-157</v>
+        <v>-437032</v>
       </c>
       <c r="K79" s="13">
-        <v>-437032</v>
+        <v>0</v>
       </c>
       <c r="L79" s="13">
-        <v>0</v>
+        <v>-547923</v>
       </c>
       <c r="M79" s="13">
-        <v>-547923</v>
+        <v>-499133</v>
       </c>
       <c r="N79" s="13">
-        <v>-499133</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-979334</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>47</v>
       </c>
@@ -3021,34 +3021,34 @@
         <v>0</v>
       </c>
       <c r="F80" s="17">
-        <v>0</v>
+        <v>-492275</v>
       </c>
       <c r="G80" s="17">
-        <v>-492275</v>
+        <v>0</v>
       </c>
       <c r="H80" s="17">
-        <v>0</v>
+        <v>-20161</v>
       </c>
       <c r="I80" s="17">
-        <v>-20161</v>
+        <v>-232755</v>
       </c>
       <c r="J80" s="17">
-        <v>-232755</v>
+        <v>-546600</v>
       </c>
       <c r="K80" s="17">
-        <v>-546600</v>
+        <v>-147448</v>
       </c>
       <c r="L80" s="17">
-        <v>-147448</v>
+        <v>-1070655</v>
       </c>
       <c r="M80" s="17">
-        <v>-1070655</v>
+        <v>-549544</v>
       </c>
       <c r="N80" s="17">
-        <v>-549544</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1555896</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>48</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -3074,74 +3074,74 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-49014</v>
+        <v>-24880</v>
       </c>
       <c r="F82" s="11">
-        <v>-24880</v>
+        <v>4789</v>
       </c>
       <c r="G82" s="11">
-        <v>4789</v>
+        <v>-20663</v>
       </c>
       <c r="H82" s="11">
-        <v>-20663</v>
+        <v>-32010</v>
       </c>
       <c r="I82" s="11">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="J82" s="11">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="K82" s="11">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="L82" s="11">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="M82" s="11">
-        <v>-43556</v>
+        <v>-30676</v>
       </c>
       <c r="N82" s="11">
-        <v>-30676</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53869</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>-49014</v>
+        <v>-24880</v>
       </c>
       <c r="F83" s="15">
-        <v>-24880</v>
+        <v>4789</v>
       </c>
       <c r="G83" s="15">
-        <v>4789</v>
+        <v>-20663</v>
       </c>
       <c r="H83" s="15">
-        <v>-20663</v>
+        <v>-32010</v>
       </c>
       <c r="I83" s="15">
-        <v>-32010</v>
+        <v>-36323</v>
       </c>
       <c r="J83" s="15">
-        <v>-36323</v>
+        <v>-27502</v>
       </c>
       <c r="K83" s="15">
-        <v>-27502</v>
+        <v>-30463</v>
       </c>
       <c r="L83" s="15">
-        <v>-30463</v>
+        <v>-43556</v>
       </c>
       <c r="M83" s="15">
-        <v>-43556</v>
+        <v>-30676</v>
       </c>
       <c r="N83" s="15">
-        <v>-30676</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53869</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>29</v>
       </c>
@@ -3158,8 +3158,8 @@
       <c r="G84" s="17">
         <v>0</v>
       </c>
-      <c r="H84" s="17">
-        <v>0</v>
+      <c r="H84" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>18</v>
@@ -3180,7 +3180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>31</v>
       </c>
@@ -3194,17 +3194,17 @@
       <c r="F85" s="15">
         <v>0</v>
       </c>
-      <c r="G85" s="15">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="15">
-        <v>0</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>18</v>
+      <c r="G85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="15">
+        <v>0</v>
       </c>
       <c r="K85" s="15">
         <v>0</v>
@@ -3219,44 +3219,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17">
-        <v>-392353</v>
+        <v>-348388</v>
       </c>
       <c r="F86" s="17">
-        <v>-348388</v>
+        <v>-1782479</v>
       </c>
       <c r="G86" s="17">
-        <v>-1782479</v>
+        <v>-711157</v>
       </c>
       <c r="H86" s="17">
-        <v>-711157</v>
+        <v>-1405859</v>
       </c>
       <c r="I86" s="17">
-        <v>-1405859</v>
+        <v>-722924</v>
       </c>
       <c r="J86" s="17">
-        <v>-722924</v>
+        <v>-2151446</v>
       </c>
       <c r="K86" s="17">
-        <v>-2151446</v>
+        <v>-982683</v>
       </c>
       <c r="L86" s="17">
-        <v>-982683</v>
+        <v>-1798225</v>
       </c>
       <c r="M86" s="17">
-        <v>-1798225</v>
+        <v>-751341</v>
       </c>
       <c r="N86" s="17">
-        <v>-751341</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2253260</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3286,7 +3286,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3301,7 +3301,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>50</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3353,7 +3353,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>51</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3379,37 +3379,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>12973</v>
+        <v>1</v>
       </c>
       <c r="F93" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
       </c>
       <c r="H93" s="11">
-        <v>0</v>
+        <v>5743</v>
       </c>
       <c r="I93" s="11">
-        <v>5743</v>
+        <v>68621</v>
       </c>
       <c r="J93" s="11">
-        <v>68621</v>
+        <v>35300</v>
       </c>
       <c r="K93" s="11">
-        <v>35300</v>
+        <v>0</v>
       </c>
       <c r="L93" s="11">
         <v>0</v>
       </c>
       <c r="M93" s="11">
-        <v>0</v>
+        <v>2191</v>
       </c>
       <c r="N93" s="11">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -3418,37 +3418,37 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>-434</v>
+        <v>3213</v>
       </c>
       <c r="F94" s="13">
-        <v>3213</v>
+        <v>33203</v>
       </c>
       <c r="G94" s="13">
-        <v>33203</v>
+        <v>0</v>
       </c>
       <c r="H94" s="13">
-        <v>0</v>
+        <v>20603</v>
       </c>
       <c r="I94" s="13">
-        <v>20603</v>
+        <v>-12127</v>
       </c>
       <c r="J94" s="13">
-        <v>-12127</v>
+        <v>42817</v>
       </c>
       <c r="K94" s="13">
-        <v>42817</v>
+        <v>0</v>
       </c>
       <c r="L94" s="13">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="M94" s="13">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N94" s="13">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>20</v>
       </c>
@@ -3460,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="11">
-        <v>0</v>
+        <v>48021</v>
       </c>
       <c r="G95" s="11">
-        <v>48021</v>
+        <v>0</v>
       </c>
       <c r="H95" s="11">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>21</v>
       </c>
@@ -3496,37 +3496,37 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>7747</v>
+        <v>10118</v>
       </c>
       <c r="F96" s="13">
-        <v>10118</v>
+        <v>102099</v>
       </c>
       <c r="G96" s="13">
-        <v>102099</v>
+        <v>13769</v>
       </c>
       <c r="H96" s="13">
-        <v>13769</v>
+        <v>19945</v>
       </c>
       <c r="I96" s="13">
-        <v>19945</v>
+        <v>-17032</v>
       </c>
       <c r="J96" s="13">
-        <v>-17032</v>
+        <v>228409</v>
       </c>
       <c r="K96" s="13">
-        <v>228409</v>
+        <v>20843</v>
       </c>
       <c r="L96" s="13">
-        <v>20843</v>
+        <v>197</v>
       </c>
       <c r="M96" s="13">
-        <v>197</v>
+        <v>3759</v>
       </c>
       <c r="N96" s="13">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>22</v>
       </c>
@@ -3535,74 +3535,74 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>35145</v>
+        <v>218157</v>
       </c>
       <c r="F97" s="11">
-        <v>218157</v>
+        <v>573328</v>
       </c>
       <c r="G97" s="11">
-        <v>573328</v>
+        <v>304048</v>
       </c>
       <c r="H97" s="11">
-        <v>304048</v>
+        <v>521030</v>
       </c>
       <c r="I97" s="11">
-        <v>521030</v>
+        <v>117410</v>
       </c>
       <c r="J97" s="11">
-        <v>117410</v>
+        <v>108365</v>
       </c>
       <c r="K97" s="11">
-        <v>108365</v>
+        <v>95511</v>
       </c>
       <c r="L97" s="11">
-        <v>95511</v>
+        <v>372795</v>
       </c>
       <c r="M97" s="11">
-        <v>372795</v>
+        <v>129122</v>
       </c>
       <c r="N97" s="11">
-        <v>129122</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>358658</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>55431</v>
+        <v>231489</v>
       </c>
       <c r="F98" s="15">
-        <v>231489</v>
+        <v>756651</v>
       </c>
       <c r="G98" s="15">
-        <v>756651</v>
+        <v>317817</v>
       </c>
       <c r="H98" s="15">
-        <v>317817</v>
+        <v>567321</v>
       </c>
       <c r="I98" s="15">
-        <v>567321</v>
+        <v>156872</v>
       </c>
       <c r="J98" s="15">
-        <v>156872</v>
+        <v>414891</v>
       </c>
       <c r="K98" s="15">
-        <v>414891</v>
+        <v>116354</v>
       </c>
       <c r="L98" s="15">
-        <v>116354</v>
+        <v>373230</v>
       </c>
       <c r="M98" s="15">
-        <v>373230</v>
+        <v>135316</v>
       </c>
       <c r="N98" s="15">
-        <v>135316</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>365782</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>53</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>16</v>
       </c>
@@ -3630,8 +3630,8 @@
       <c r="E100" s="11">
         <v>0</v>
       </c>
-      <c r="F100" s="11">
-        <v>0</v>
+      <c r="F100" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>18</v>
@@ -3639,26 +3639,26 @@
       <c r="H100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I100" s="11" t="s">
-        <v>18</v>
+      <c r="I100" s="11">
+        <v>68379</v>
       </c>
       <c r="J100" s="11">
-        <v>68379</v>
+        <v>63131</v>
       </c>
       <c r="K100" s="11">
-        <v>63131</v>
+        <v>67261</v>
       </c>
       <c r="L100" s="11">
-        <v>67261</v>
+        <v>131706</v>
       </c>
       <c r="M100" s="11">
-        <v>131706</v>
+        <v>-36739</v>
       </c>
       <c r="N100" s="11">
-        <v>-36739</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64676</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>20</v>
       </c>
@@ -3670,34 +3670,34 @@
         <v>0</v>
       </c>
       <c r="F101" s="13">
-        <v>0</v>
+        <v>119781</v>
       </c>
       <c r="G101" s="13">
-        <v>119781</v>
+        <v>0</v>
       </c>
       <c r="H101" s="13">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I101" s="13">
-        <v>473</v>
+        <v>-157</v>
       </c>
       <c r="J101" s="13">
-        <v>-157</v>
+        <v>24604</v>
       </c>
       <c r="K101" s="13">
-        <v>24604</v>
+        <v>0</v>
       </c>
       <c r="L101" s="13">
-        <v>0</v>
+        <v>309192</v>
       </c>
       <c r="M101" s="13">
-        <v>309192</v>
+        <v>259029</v>
       </c>
       <c r="N101" s="13">
-        <v>259029</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>505523</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>54</v>
       </c>
@@ -3707,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="F102" s="17">
-        <v>0</v>
+        <v>119781</v>
       </c>
       <c r="G102" s="17">
-        <v>119781</v>
+        <v>0</v>
       </c>
       <c r="H102" s="17">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I102" s="17">
-        <v>473</v>
+        <v>68222</v>
       </c>
       <c r="J102" s="17">
-        <v>68222</v>
+        <v>87735</v>
       </c>
       <c r="K102" s="17">
-        <v>87735</v>
+        <v>67261</v>
       </c>
       <c r="L102" s="17">
-        <v>67261</v>
+        <v>440898</v>
       </c>
       <c r="M102" s="17">
-        <v>440898</v>
+        <v>222290</v>
       </c>
       <c r="N102" s="17">
-        <v>222290</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>570199</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>55</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>27</v>
       </c>
@@ -3760,108 +3760,108 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>108449</v>
+        <v>71805</v>
       </c>
       <c r="F104" s="11">
-        <v>71805</v>
+        <v>8107</v>
       </c>
       <c r="G104" s="11">
-        <v>8107</v>
+        <v>66431</v>
       </c>
       <c r="H104" s="11">
-        <v>66431</v>
+        <v>190570</v>
       </c>
       <c r="I104" s="11">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="J104" s="11">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="K104" s="11">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="L104" s="11">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="M104" s="11">
-        <v>110486</v>
+        <v>46316</v>
       </c>
       <c r="N104" s="11">
-        <v>46316</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>363132</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>108449</v>
+        <v>71805</v>
       </c>
       <c r="F105" s="15">
-        <v>71805</v>
+        <v>8107</v>
       </c>
       <c r="G105" s="15">
-        <v>8107</v>
+        <v>66431</v>
       </c>
       <c r="H105" s="15">
-        <v>66431</v>
+        <v>190570</v>
       </c>
       <c r="I105" s="15">
-        <v>190570</v>
+        <v>101122</v>
       </c>
       <c r="J105" s="15">
-        <v>101122</v>
+        <v>116107</v>
       </c>
       <c r="K105" s="15">
-        <v>116107</v>
+        <v>249906</v>
       </c>
       <c r="L105" s="15">
-        <v>249906</v>
+        <v>110486</v>
       </c>
       <c r="M105" s="15">
-        <v>110486</v>
+        <v>46316</v>
       </c>
       <c r="N105" s="15">
-        <v>46316</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>363132</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>163880</v>
+        <v>303294</v>
       </c>
       <c r="F106" s="17">
-        <v>303294</v>
+        <v>884539</v>
       </c>
       <c r="G106" s="17">
-        <v>884539</v>
+        <v>384248</v>
       </c>
       <c r="H106" s="17">
-        <v>384248</v>
+        <v>758364</v>
       </c>
       <c r="I106" s="17">
-        <v>758364</v>
+        <v>326216</v>
       </c>
       <c r="J106" s="17">
-        <v>326216</v>
+        <v>618733</v>
       </c>
       <c r="K106" s="17">
-        <v>618733</v>
+        <v>433521</v>
       </c>
       <c r="L106" s="17">
-        <v>433521</v>
+        <v>924614</v>
       </c>
       <c r="M106" s="17">
-        <v>924614</v>
+        <v>403922</v>
       </c>
       <c r="N106" s="17">
-        <v>403922</v>
+        <v>1299113</v>
       </c>
     </row>
   </sheetData>
